--- a/Reproducible/ett.xlsx
+++ b/Reproducible/ett.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ett" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="82">
   <si>
     <t>ASTRONOMICAL HIGH TIDE</t>
   </si>
@@ -744,8 +744,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1088,683 +1089,1671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <f>MATCH(B2,$F$2:$F$49,0)</f>
+        <v>1</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">MATCH(B3,$F$2:$F$49,0)</f>
+        <v>1</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C70" si="1">MATCH(B67,$F$2:$F$49,0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>72</v>
+      </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>73</v>
+      </c>
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>79</v>
+      </c>
+      <c r="B114" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
